--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B11747-8D77-4623-A1CF-5D5DCE2DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE0C45-B97C-44F6-95C5-464F4D1BED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1430" windowWidth="33150" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -644,23 +647,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -787,9 +774,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1051,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2066,7 +2053,7 @@
         <v>71</v>
       </c>
       <c r="H38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11" t="str">
         <f t="shared" si="7"/>
@@ -2080,7 +2067,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H22:H26 H3:H20">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2097,7 +2084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2114,7 +2101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2131,7 +2118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2148,7 +2135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2165,7 +2152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2182,11 +2169,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 H33">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
+  <conditionalFormatting sqref="H33 H31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2199,11 +2186,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32 H34">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H32">
+  <conditionalFormatting sqref="H32 H34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2216,7 +2203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2233,7 +2220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2250,7 +2237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2267,7 +2254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
